--- a/output/StructureDefinition-NatlDir-Restriction.xlsx
+++ b/output/StructureDefinition-NatlDir-Restriction.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Restriction</t>
+    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Restriction</t>
   </si>
   <si>
     <t>Version</t>
@@ -943,7 +943,7 @@
     <t>Consent.provision.actor.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Organization|http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-CareTeam|http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Practitioner)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Organization|http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-CareTeam|http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Practitioner)
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-NatlDir-Restriction.xlsx
+++ b/output/StructureDefinition-NatlDir-Restriction.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Restriction</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Restriction</t>
   </si>
   <si>
     <t>Version</t>
@@ -943,7 +943,7 @@
     <t>Consent.provision.actor.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Organization|http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-CareTeam|http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Practitioner)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Organization|http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-CareTeam|http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Practitioner)
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-NatlDir-Restriction.xlsx
+++ b/output/StructureDefinition-NatlDir-Restriction.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Restriction</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Restriction</t>
   </si>
   <si>
     <t>Version</t>
@@ -943,7 +943,7 @@
     <t>Consent.provision.actor.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Organization|http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-CareTeam|http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Practitioner)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization|http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-CareTeam|http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Practitioner)
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-NatlDir-Restriction.xlsx
+++ b/output/StructureDefinition-NatlDir-Restriction.xlsx
@@ -551,7 +551,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vhdir/ValueSet/consent</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/ConsentVS</t>
   </si>
   <si>
     <t>Consent.category</t>
@@ -943,7 +943,7 @@
     <t>Consent.provision.actor.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization|http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-CareTeam|http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Practitioner)
+    <t xml:space="preserve">Reference(Device|Group|CareTeam|Organization|Patient|Practitioner|RelatedPerson|PractitionerRole)
 </t>
   </si>
   <si>
@@ -1473,7 +1473,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="121.80078125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.10546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
